--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/54_Kütahya_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/54_Kütahya_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C3BCE8-E3D4-4268-8232-419357B0F45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC0DE05-2035-45A7-8D6B-BC7307F2C6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{636107FC-1ED7-43D3-84D1-66ECD346D5AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="680" xr2:uid="{C569826F-2CAB-493F-AA72-291AAFCCE39A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -934,13 +934,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3311F12D-864C-4FAF-BF5E-55FD0C90C39B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{017B867A-7F83-42E3-BF7A-09423DCA071E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F0123AA4-F63C-49A4-A758-9DC9E3BF0913}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C3F2F795-1DA4-4A53-9CE0-5B74F9EE9FF0}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{81BCB6F7-D6C1-47A5-986F-BB25F78CFC79}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{CE8AD3CC-259F-4F68-B703-0F804BB1E952}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{28AE8C02-99B7-4C5C-95AA-7AC3BBC4BBB1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0A727630-65AF-45A3-AD2D-22DEC4A9F0BC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{914F399A-45A5-4652-89A3-437372EA6394}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{98383975-2613-4852-94E2-9B63C3AB5D2F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{13B09639-95D8-491D-B9C9-45C561B40C14}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{370A9E19-CEF6-44F0-8C83-DBF693D561F9}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{0EA02C2B-0732-4FAC-B551-84E69EFB646B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3349A32E-0416-46C1-A13C-14D59F1B8014}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1310,7 +1310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F42539F-894F-403D-90AC-FA0F86319BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1647846D-E707-4337-9CDD-E69C1D67BDCE}">
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2593,7 +2593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94218F91-5CEE-4FDA-8DAE-6D9388DA2AF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6150E443-44E5-4988-AF02-39103DB6856D}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3841,7 +3841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A98AC51-3277-40A9-90C0-284AAB755939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3123A-200E-4EDD-83AF-2432371CD646}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5089,7 +5089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EFF4E1-157B-46E4-A697-20CEB07FA7D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EB75B3-6E3B-4182-B2DA-189A29925DFF}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6325,7 +6325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4589A6B1-9477-4DBC-A238-4F966C89AD13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3188D9A-FE49-4271-AB45-10DEE1BD0A01}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7605,7 +7605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7720980-09F9-4A88-997F-5ABA575B05A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E30CCA-826D-4BC7-8D94-FC0169E593A5}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8885,7 +8885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4EC5D1-9DBF-41E8-89EB-55A9B700EC15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCAB640-371E-446D-89EF-A8F8F03C7E36}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10165,7 +10165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EE12B-63C1-414E-A4D3-15CB933821E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863E2937-DDDA-4387-A51D-8437BBEB0DE1}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11445,7 +11445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077FF793-F21D-42F7-963B-B4413D64606F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42136191-3076-4DAE-A999-02F3748CF857}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12725,7 +12725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A739CF3-6535-4C49-8ACD-8460C93E4680}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A146BA1-5B38-4DC7-81C7-56E1FF01F81B}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13993,7 +13993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F75C31-6148-4DFE-9C7F-E13B03C17107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A527228-F47D-431B-B008-FB73C2CFE790}">
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15261,7 +15261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901F214C-C5AB-4240-B4FB-6AEF7EEB5410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F576A3A8-0896-4877-A1FD-BFFCC0F685D0}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
